--- a/Real-Time Embedded Systems/First Project/embedded.xlsx
+++ b/Real-Time Embedded Systems/First Project/embedded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dawnm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F308CAA6-5770-4C9C-8429-02DF12CFBC5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BEC980-4A75-44DD-AE3A-CD8D9DEBF88B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1BC71202-5437-463C-A443-47F08A224DFC}"/>
   </bookViews>
@@ -30,15 +30,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,13 +126,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total</a:t>
+              <a:t>Response times in microseconds</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> time in microseconds</a:t>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>80 Producers</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -180,167 +195,170 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$55</c:f>
+              <c:f>Sheet1!$B$2:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>175</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>230</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>240</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>270</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>280</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>290</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>400</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
@@ -348,167 +366,170 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$55</c:f>
+              <c:f>Sheet1!$A$2:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
+                  <c:v>412.32420000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>399.493765</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>396.937679</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>406.74456450000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>390.4790405</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>410.16875800000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>413.22732200000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>399.21054800000002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>395.24984999999998</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>394.83452399999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>395.66364599999901</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>395.451053</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>395.88332450000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>394.5207135</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>391.97769449999998</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>392.527672</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>388.80244249999998</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>385.54684250000003</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>380.06490299999899</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>372.94651699999997</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>366.66002800000001</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>360.955389999999</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>353.57155</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>348.46078</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>334.69078999999999</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>328.73870349999999</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>322.536385</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>309.21220049999999</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>291.21678150000002</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>280.31987700000002</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>268.967805</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>233.34368849999899</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>177.39117300000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>166.62342799999999</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>152.11215449999901</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>125.66175899999899</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>91.080308500000001</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>84.891505499999994</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>87.592533500000002</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>69.198120000000003</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>66.429675000000003</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>57.535781</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>51.788555500000001</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>49.6691565</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>49.651130999999999</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>48.592574499999998</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>48.958026500000003</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>49.128397</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>51.066500999999903</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>47.930298499999999</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>47.453764999999997</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>47.626862500000001</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>46.603702499999997</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>48.208233999999997</c:v>
                 </c:pt>
               </c:numCache>
@@ -815,7 +836,540 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Response</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> times in m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>icroseconds</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050"/>
+              <a:t>One</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" baseline="0"/>
+              <a:t> Producer</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Microseconds</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>486.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.64517499999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.273325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.702275</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.110099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.541225000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.699249999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.996775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.620674999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.946000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25.019774999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-60CE-4B74-9395-6D54EBF9F8B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="483190504"/>
+        <c:axId val="483183944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="483190504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Consumer Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483183944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483183944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Microseconds</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483190504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1358,20 +1912,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1391,6 +2461,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A4708BC-4954-451C-BFDF-21E13DD99B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1696,343 +2802,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3771EBE6-B7ED-4170-81F6-F68576730288}">
-  <dimension ref="A3:B56"/>
+  <dimension ref="A2:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>412.32420000000002</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>399.493765</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>486.56</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>396.937679</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>135.64517499999999</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>406.74456450000002</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>29.273325</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>390.4790405</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>25.702275</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>410.16875800000003</v>
       </c>
       <c r="B7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>24.110099999999999</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>413.22732200000002</v>
       </c>
       <c r="B8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>25.541225000000001</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>399.21054800000002</v>
       </c>
       <c r="B9">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>24.699249999999999</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>395.24984999999998</v>
       </c>
       <c r="B10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>24.996775</v>
+      </c>
+      <c r="F10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>394.83452399999999</v>
       </c>
       <c r="B11">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>24.620674999999999</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>395.66364599999901</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>25.946000000000002</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>395.451053</v>
       </c>
       <c r="B13">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>25.019774999999999</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>395.88332450000001</v>
       </c>
       <c r="B14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>26.708649999999999</v>
+      </c>
+      <c r="F14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>394.5207135</v>
       </c>
       <c r="B15">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>23.55105</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>391.97769449999998</v>
       </c>
       <c r="B16">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>24.573824999999999</v>
+      </c>
+      <c r="F16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>392.527672</v>
       </c>
       <c r="B17">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>23.892700000000001</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>388.80244249999998</v>
       </c>
       <c r="B18">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>24.960450000000002</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>385.54684250000003</v>
       </c>
       <c r="B19">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>25.810600000000001</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>380.06490299999899</v>
       </c>
       <c r="B20">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>25.485424999999999</v>
+      </c>
+      <c r="F20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>372.94651699999997</v>
       </c>
       <c r="B21">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>24.962949999999999</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>366.66002800000001</v>
       </c>
       <c r="B22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>25.586275000000001</v>
+      </c>
+      <c r="F22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>360.955389999999</v>
       </c>
       <c r="B23">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>23.754774999999999</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>353.57155</v>
       </c>
       <c r="B24">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>24.394674999999999</v>
+      </c>
+      <c r="F24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>348.46078</v>
       </c>
       <c r="B25">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>24.793949999999999</v>
+      </c>
+      <c r="F25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>334.69078999999999</v>
       </c>
       <c r="B26">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>25.2453</v>
+      </c>
+      <c r="F26">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>328.73870349999999</v>
       </c>
       <c r="B27">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>24.330725000000001</v>
+      </c>
+      <c r="F27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>322.536385</v>
       </c>
       <c r="B28">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>25.036100000000001</v>
+      </c>
+      <c r="F28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>309.21220049999999</v>
       </c>
       <c r="B29">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>24.920925</v>
+      </c>
+      <c r="F29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>291.21678150000002</v>
       </c>
       <c r="B30">
         <v>140</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>25.915050000000001</v>
+      </c>
+      <c r="F30">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>280.31987700000002</v>
       </c>
       <c r="B31">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>24.646249999999998</v>
+      </c>
+      <c r="F31">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>268.967805</v>
       </c>
       <c r="B32">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>27.458525000000002</v>
+      </c>
+      <c r="F32">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>233.34368849999899</v>
       </c>
       <c r="B33">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>25.964075000000001</v>
+      </c>
+      <c r="F33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>177.39117300000001</v>
       </c>
       <c r="B34">
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>24.003799999999998</v>
+      </c>
+      <c r="F34">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>166.62342799999999</v>
       </c>
       <c r="B35">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>23.779350000000001</v>
+      </c>
+      <c r="F35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>152.11215449999901</v>
       </c>
       <c r="B36">
         <v>175</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>25.273975</v>
+      </c>
+      <c r="F36">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>125.66175899999899</v>
       </c>
       <c r="B37">
         <v>180</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>26.417475</v>
+      </c>
+      <c r="F37">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>91.080308500000001</v>
       </c>
       <c r="B38">
         <v>185</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>24.486149999999999</v>
+      </c>
+      <c r="F38">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>84.891505499999994</v>
       </c>
       <c r="B39">
         <v>190</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>25.2895</v>
+      </c>
+      <c r="F39">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>87.592533500000002</v>
       </c>
       <c r="B40">
         <v>195</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>27.443974999999998</v>
+      </c>
+      <c r="F40">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>69.198120000000003</v>
       </c>
       <c r="B41">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>24.820499999999999</v>
+      </c>
+      <c r="F41">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>66.429675000000003</v>
       </c>
       <c r="B42">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>24.503274999999999</v>
+      </c>
+      <c r="F42">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>57.535781</v>
       </c>
       <c r="B43">
         <v>220</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>26.839974999999999</v>
+      </c>
+      <c r="F43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>51.788555500000001</v>
       </c>
@@ -2040,7 +3401,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49.6691565</v>
       </c>
@@ -2048,7 +3409,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>49.651130999999999</v>
       </c>
@@ -2056,7 +3417,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>48.592574499999998</v>
       </c>
@@ -2064,7 +3425,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48.958026500000003</v>
       </c>
@@ -2138,6 +3499,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>